--- a/public/upload/upload.xlsx
+++ b/public/upload/upload.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>updatetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -487,6 +487,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/upload/upload.xlsx
+++ b/public/upload/upload.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>updatetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -487,23 +487,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>123</v>
-      </c>
-      <c r="C5">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/upload/upload.xlsx
+++ b/public/upload/upload.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -444,7 +444,7 @@
         <v>456</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -478,7 +478,7 @@
         <v>963</v>
       </c>
       <c r="C4">
-        <v>22.3</v>
+        <v>15.9</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -495,7 +495,7 @@
         <v>123</v>
       </c>
       <c r="C5">
-        <v>18.600000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/public/upload/upload.xlsx
+++ b/public/upload/upload.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>updatetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -444,7 +444,7 @@
         <v>456</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -478,30 +478,13 @@
         <v>963</v>
       </c>
       <c r="C4">
-        <v>15.9</v>
+        <v>22.3</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>123</v>
-      </c>
-      <c r="C5">
-        <v>22.5</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/public/upload/upload.xlsx
+++ b/public/upload/upload.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -48,15 +48,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2014-06-08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2014-06-09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2014-10-11</t>
+    <t>2014-06-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-10-17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -163,7 +163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,7 +198,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/public/upload/upload.xlsx
+++ b/public/upload/upload.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>updatetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -444,7 +444,7 @@
         <v>456</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -478,13 +478,30 @@
         <v>963</v>
       </c>
       <c r="C4">
-        <v>22.3</v>
+        <v>15.9</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5">
+        <v>22.5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
